--- a/Core/Editor/SongExcelEditorWindow/config.xlsx
+++ b/Core/Editor/SongExcelEditorWindow/config.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
   <si>
     <t>Hello</t>
   </si>
@@ -151,18 +157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -173,218 +168,381 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="J4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="J19" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="J20" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="J21" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="J22" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
